--- a/documents/Published/KPIGrid/KPIGridByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/KPIGrid/KPIGridByMAQSoftwareChecklist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F353C155-EACE-4E11-A142-92F7A400EAF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BVTs" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
   <si>
     <t>S no</t>
   </si>
@@ -349,15 +350,6 @@
     <t>KPIs should be displayed in the columns for prev data is present in the Measure KPIs data field</t>
   </si>
   <si>
-    <t>Indicator settings</t>
-  </si>
-  <si>
-    <t>Interchange 'Sales $' indicator colors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicator color for increase and decrease should be interchanged </t>
-  </si>
-  <si>
     <t>Grid classification</t>
   </si>
   <si>
@@ -381,12 +373,28 @@
     <t>First row should be collapsed</t>
   </si>
   <si>
-    <t>1. Go to formatting pane
-2. Go to Indicator settings
-3. Update 'Sales $' indicator to 'OFF'</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>PBI Desktop</t>
+  </si>
+  <si>
+    <t>Pass:</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
   </si>
 </sst>
 </file>
@@ -510,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -562,6 +570,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,6 +586,2651 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3956798</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2343150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFFFCDB-38D8-4A37-8F49-ED56B1FD136B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15449551" y="6353175"/>
+          <a:ext cx="3871072" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3686175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2279381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACCF7F4-34C7-4AD6-8C8C-B65FED3DE8C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19573875" y="6391275"/>
+          <a:ext cx="3600450" cy="2231756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3734673</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2314575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1286DF5E-43CE-4AAD-84BE-E47E796C238F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23536276" y="6343650"/>
+          <a:ext cx="3734672" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3439896</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1771651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5F00BB-CD0B-4574-AB46-3EF7BB089557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27451050" y="190501"/>
+          <a:ext cx="3439896" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3785675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1771650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4468C49D-DE1D-4F9C-AE74-D388699EB0B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23669625" y="190500"/>
+          <a:ext cx="3652325" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3609974</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1661160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F015B29F-B2C8-4211-B976-BCCB94EEC002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19640549" y="238125"/>
+          <a:ext cx="3457575" cy="1613535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3448521</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1771884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A576088F-E707-44C4-ACB1-34D3EA052B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15440025" y="285750"/>
+          <a:ext cx="3372321" cy="1676634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2616714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A3247F-4FFF-42D8-817A-EA6E9C9BFF53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16097250" y="2505075"/>
+          <a:ext cx="1571625" cy="2550039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3028950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2623784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9B801D-6A49-4836-AE04-F64524543336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24183975" y="2543175"/>
+          <a:ext cx="2381250" cy="2519009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2886075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2564244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D23BAA-8FA7-494E-813F-D037570C698E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19926301" y="2628900"/>
+          <a:ext cx="2447924" cy="2373744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2590800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2601668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3609C84D-468F-4B92-9367-C7B12FDDA720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28222575" y="2524126"/>
+          <a:ext cx="1819275" cy="2515942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3448976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC0BE4F-ED1E-4967-BB77-48A335E946D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27717750" y="5438775"/>
+          <a:ext cx="3182276" cy="1876425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>141532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3686175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2133938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B794F456-F465-4D0F-83A7-1B221D5E3FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19840575" y="5342182"/>
+          <a:ext cx="3333750" cy="1992406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3591584</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2105418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E3CA63-9A05-420D-9C2F-2B96F852BACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23879175" y="5367337"/>
+          <a:ext cx="3248684" cy="1938731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>162472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3800475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2105351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B4D39C-0B8A-4740-AB90-A7D3ADD1822B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15754350" y="5363122"/>
+          <a:ext cx="3409950" cy="1942879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3915297</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2934087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD9FCAF-8BC2-4A9E-8EFF-0F3E6B11B822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15535275" y="8229600"/>
+          <a:ext cx="3743847" cy="2772162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3609975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2644112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2FCA15-A348-4C49-A3E3-B7E3E8B9B205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19726275" y="8362950"/>
+          <a:ext cx="3371850" cy="2348837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3524250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2763308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B7FB9D-3298-4A7A-8E31-D4954C8008D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23669625" y="8382000"/>
+          <a:ext cx="3390900" cy="2448983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41724</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2619375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE75940-70BE-4B69-85F0-BDA0538DD373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27584401" y="8562975"/>
+          <a:ext cx="3556448" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3133725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2020401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D0B3C6-3A53-4E96-8390-292EF6698D0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27603450" y="11630025"/>
+          <a:ext cx="2981325" cy="1801326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3067050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2382261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A480AE1-E318-4630-AD65-C07372E51F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15582900" y="14192250"/>
+          <a:ext cx="2847975" cy="2287011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2459744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8106BDB-C14C-4171-B425-38692E117488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19831050" y="14201775"/>
+          <a:ext cx="2828925" cy="2354969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2302552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E28F90-9F1A-4ADA-8508-771852B6BBCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23860125" y="14192250"/>
+          <a:ext cx="2609850" cy="2207302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2084962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F71A9F1-39AC-4F7C-8C28-E93E72DE4815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27660600" y="14277975"/>
+          <a:ext cx="3114675" cy="1903987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3381375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2565115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945CE5D5-2D6E-4C5A-9BE4-CCB3351B8A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15697200" y="16878301"/>
+          <a:ext cx="3048000" cy="2460339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3476625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2595645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE6ADFB-ACF4-4776-AFD5-2EE03D014DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19916775" y="16849725"/>
+          <a:ext cx="3048000" cy="2519445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2510684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DCD1D1-CC60-4E53-9297-8EA2985D91BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23774400" y="16916400"/>
+          <a:ext cx="2933700" cy="2367809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3505201</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2282230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA87100-366B-4224-9511-AB14A85518E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27584401" y="17078325"/>
+          <a:ext cx="3371850" cy="1977430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3505200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2184304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A892082-B6D8-4179-918A-7CE9BE6E4CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27641550" y="19773900"/>
+          <a:ext cx="3314700" cy="2003329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2360316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508213DD-C335-4119-9F62-D96872F2835B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23945850" y="19697701"/>
+          <a:ext cx="2638425" cy="2255540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3228975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2292861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C31D43D-6B65-4477-9383-195F2C4E8947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19869150" y="19592925"/>
+          <a:ext cx="2847975" cy="2292861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2771775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2262673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A05EFE-C2A1-49BF-A4D3-5C53FCA7E29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15363825" y="19592925"/>
+          <a:ext cx="2771775" cy="2262673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3717424</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2057400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6E5076-3E7B-4F2E-BA15-1B5657F3FAF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15449550" y="22193250"/>
+          <a:ext cx="3631699" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3657211</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2038350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FF42C2-BC0E-4B37-A588-D4BCC912D2C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19773901" y="22288500"/>
+          <a:ext cx="3371460" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3629025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2045971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2A85EA-1AD0-4A46-BE95-2801029EAC9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23783925" y="22298026"/>
+          <a:ext cx="3381375" cy="1893570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3491218</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1990726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F561D0C6-FBC1-4D8D-B7BF-1B3C6CC2BC1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27536776" y="22288501"/>
+          <a:ext cx="3405492" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3600450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2156261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297F63B9-63C5-4FF2-A4CE-5F8EA1B6C769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15478125" y="24660225"/>
+          <a:ext cx="3486150" cy="2022911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3619501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2278213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B573A1EC-AD21-45DC-BCFD-48DA0E52F1CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19754851" y="24660226"/>
+          <a:ext cx="3352800" cy="2144862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3762376</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2103014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4092424B-1E0C-4C0A-88BE-5A2AB6696427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23812501" y="24650700"/>
+          <a:ext cx="3486150" cy="1979189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3429000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2006049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E137EF-36C8-4CE1-BC99-50E21B8E6A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27527250" y="24622125"/>
+          <a:ext cx="3352800" cy="1910799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3152775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1829613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74F74EC-8E82-4C09-9A41-41960E34C9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27698700" y="27012900"/>
+          <a:ext cx="2905125" cy="1715313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3562350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1900339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFD0B07-2DDC-440B-B56C-DA92A395C0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23802975" y="26969439"/>
+          <a:ext cx="3295650" cy="1829500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3638550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1989349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0623A2D1-8F82-4E03-B3E8-7BECF8B6226F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19688175" y="26955750"/>
+          <a:ext cx="3438525" cy="1932199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1778701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D1BC2E-1DCB-4763-B50C-0DB55AD90E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15687675" y="26993851"/>
+          <a:ext cx="3019425" cy="1683450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3800475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2162455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5494154D-9137-47D3-8A6B-7CB0C58ABDB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15516225" y="29108400"/>
+          <a:ext cx="3648075" cy="2038630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3838576</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2283559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A57A88-5CD4-45E9-927E-A26B71F66CB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19745326" y="29156026"/>
+          <a:ext cx="3581400" cy="2112108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3895725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2206903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A8249F-1C46-48DB-99C9-2AB6F6C0B213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23688675" y="29060775"/>
+          <a:ext cx="3743325" cy="2130703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3369780</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1943100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEE9C83-0AD4-437E-97F1-B670D6D7A8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27555826" y="29127450"/>
+          <a:ext cx="3265004" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3495676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2574925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86D0ED3-FCCA-473F-9C1F-57D37CFC1CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15811501" y="32604075"/>
+          <a:ext cx="3048000" cy="2508250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3476625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2467171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDC3BB9-5D4E-4FFD-8BBE-BC913FF87EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15925800" y="35490150"/>
+          <a:ext cx="2914650" cy="2238571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3438526</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2420100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACF90EA-E52A-4681-8460-CB5290D1B6F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19764376" y="35404426"/>
+          <a:ext cx="3162300" cy="2277224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3381375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2540946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B368F213-E471-4F05-A35F-89320CDBE765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19888200" y="32689800"/>
+          <a:ext cx="2981325" cy="2388546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3019425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2319502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BC81D8-7DDC-4F4D-9E10-D56804D0D7D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23831550" y="35471100"/>
+          <a:ext cx="2724150" cy="2109952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3305176</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2611363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4864763-C154-41C5-B372-FC53FCD46C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23850601" y="32632651"/>
+          <a:ext cx="2990850" cy="2516112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3133725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2408067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8C88EF-401C-4E32-B926-3A0A9C227A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27632025" y="35375850"/>
+          <a:ext cx="2952750" cy="2293767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3571875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2440480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA2F6DB-E8FD-435E-B6D7-071D06E0DB19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27746325" y="32699325"/>
+          <a:ext cx="3276600" cy="2278555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3590926</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8CEE7F-A889-451F-9725-D5D379958422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27555826" y="31489650"/>
+          <a:ext cx="3486150" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3774751</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2019300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823F427B-8F94-4546-9920-1CE4A2E7BC37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23660100" y="31594425"/>
+          <a:ext cx="3650926" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3868923</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2066925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547D9151-C2DD-4715-8AC7-EA8138743F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19697700" y="31689675"/>
+          <a:ext cx="3659373" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3953674</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2105025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824614CB-B5D5-4C41-8589-CB3D1D7EE189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15563850" y="31613475"/>
+          <a:ext cx="3753649" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,10 +3509,14 @@
     <col min="3" max="3" width="53.7109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="72.5703125" style="11" customWidth="1"/>
     <col min="5" max="5" width="82.5703125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="6" max="6" width="61.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="54.7109375" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -874,8 +3532,20 @@
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -891,8 +3561,20 @@
       <c r="E2" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -908,8 +3590,20 @@
       <c r="E3" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -925,8 +3619,20 @@
       <c r="E4" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -942,8 +3648,20 @@
       <c r="E5" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F5" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -959,8 +3677,20 @@
       <c r="E6" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>54</v>
       </c>
@@ -970,8 +3700,20 @@
       <c r="E7" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -987,8 +3729,20 @@
       <c r="E8" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="11" t="s">
         <v>62</v>
       </c>
@@ -998,8 +3752,20 @@
       <c r="E9" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
         <v>60</v>
       </c>
@@ -1009,8 +3775,20 @@
       <c r="E10" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -1026,8 +3804,20 @@
       <c r="E11" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>71</v>
       </c>
@@ -1037,8 +3827,20 @@
       <c r="E12" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>72</v>
       </c>
@@ -1048,8 +3850,20 @@
       <c r="E13" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>8</v>
       </c>
@@ -1065,10 +3879,22 @@
       <c r="E14" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>81</v>
@@ -1077,49 +3903,58 @@
         <v>82</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1127,15 +3962,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BAAB3-E626-427F-9685-DFE372DAA2D9}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1149,7 +3984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1201,7 +4036,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1245,7 +4080,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1406,7 +4241,7 @@
         <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
